--- a/Mifos Automation Excels/Loan Product/823-RBI-EI-DB-SAR-Y-NON-RNI-CTRFD-SAR-MD-Y-1-Late Repayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/823-RBI-EI-DB-SAR-Y-NON-RNI-CTRFD-SAR-MD-Y-1-Late Repayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>productname</t>
   </si>
@@ -122,9 +122,6 @@
     <t>823RBI-EI-DB-SAR-Y-NON-RNI-CTRFD-SAR-MD-Y-1-Late Repayment</t>
   </si>
   <si>
-    <t>RBI-EI-DB-SAR-Y-NON-RNI-CTRFD-SAR-MD-Y-1-Late Repayment</t>
-  </si>
-  <si>
     <t>verifyloanproduct</t>
   </si>
   <si>
@@ -134,12 +131,6 @@
     <t>includeincustomerloancounter</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>decimalplaces</t>
   </si>
   <si>
@@ -225,6 +216,12 @@
   </si>
   <si>
     <t>Overpayment Liability</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -625,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -657,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -670,7 +667,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -678,15 +675,15 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="12">
         <v>2</v>
@@ -694,7 +691,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -730,7 +727,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -855,7 +852,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" s="5">
         <v>10000</v>
@@ -863,7 +860,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -871,98 +868,98 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -987,10 +984,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
